--- a/pred_ohlcv/54_21/2019-10-28 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1091.2770455</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1089.6992455</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1089.8382455</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1084.9519455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1089.8296455</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1032.2036455</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>962.4577455</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>965.1115455</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>959.7061455</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>909.8346455000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>930.6096455000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>928.6096455000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>76.59257751000004</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>25.60497751000004</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5.60382248999996</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>27.04667751000004</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>42.64497751000004</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>42.54497751000004</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>37.41477751000004</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1735.16142965</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2375.225129649999</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2329.79152965</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2352.98922965</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2355.82462965</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2305.51912965</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2325.51912965</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2317.33872965</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2317.213629649999</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2027.164029649999</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2011.611429649999</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2013.611429649999</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1849.498629649999</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1843.490129649999</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1843.440129649999</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1836.255037109999</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1936.255037109999</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1921.129937109999</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1845.558837109999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1817.558837109999</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1809.558837109999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>126.8599863600006</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>217.3380863600006</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1091.2770455</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1089.6992455</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1089.8382455</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1084.9519455</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1089.8296455</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1032.2036455</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>962.4577455</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>965.1115455</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>959.7061455</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>909.8346455000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>930.6096455000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>928.6096455000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>76.59257751000004</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>25.60497751000004</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5.60382248999996</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>27.04667751000004</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>42.64497751000004</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>42.54497751000004</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>37.41477751000004</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2329.79152965</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2352.98922965</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2355.82462965</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2305.51912965</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2325.51912965</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2317.33872965</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2317.213629649999</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2027.164029649999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2011.611429649999</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2013.611429649999</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1849.498629649999</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1843.490129649999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1844.490129649999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1843.440129649999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1930.629729649999</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1836.255037109999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1936.255037109999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1921.129937109999</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1817.558837109999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1809.558837109999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1665.115537109999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1114.409837109999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1268.949737109999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-611.2098821099994</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-816.4410821099993</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-13.68753861999935</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>243.7997863600006</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>237.7997863600006</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>126.8599863600006</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
